--- a/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>#config</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>./config/achievecondition.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/dropclass.xml</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,10 +955,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -973,10 +981,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -998,11 +1006,11 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1019,28 +1027,28 @@
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1051,36 +1059,36 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1097,22 +1105,22 @@
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1123,16 +1131,16 @@
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1149,16 +1157,16 @@
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1175,16 +1183,16 @@
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1201,27 +1209,53 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>#config</t>
   </si>
@@ -270,11 +270,27 @@
     <t>./config/dropclass.xml</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>signinclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/signinclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/heroclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,11 +1048,11 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1053,42 +1069,42 @@
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1105,48 +1121,48 @@
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1157,22 +1173,22 @@
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1183,16 +1199,16 @@
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1209,16 +1225,16 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1235,27 +1251,79 @@
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>#config</t>
   </si>
@@ -284,6 +284,14 @@
   </si>
   <si>
     <t>./config/heroclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/storeclass.xml</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -784,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,11 +1108,11 @@
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1121,28 +1129,28 @@
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1153,36 +1161,36 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1199,22 +1207,22 @@
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1225,16 +1233,16 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1251,16 +1259,16 @@
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1277,16 +1285,16 @@
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -1303,27 +1311,53 @@
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>#config</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>./config/storeclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/itemclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性定义配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,17 +1140,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
+      <c r="A14" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1155,28 +1167,28 @@
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1187,36 +1199,36 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1233,22 +1245,22 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1259,16 +1271,16 @@
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1285,16 +1297,16 @@
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -1311,16 +1323,16 @@
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -1337,27 +1349,53 @@
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>#config</t>
   </si>
@@ -304,6 +304,38 @@
   </si>
   <si>
     <t>属性定义配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/taskclass.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskcondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/taskcondition.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskexecute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/taskexecute.xml</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,51 +991,51 @@
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
+      <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1011,16 +1043,16 @@
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1043,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1069,10 +1101,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1095,10 +1127,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1121,10 +1153,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1140,17 +1172,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>71</v>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1172,63 +1204,63 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
+      <c r="A17" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1245,16 +1277,16 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1271,16 +1303,16 @@
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1292,27 +1324,27 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -1323,22 +1355,22 @@
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -1349,16 +1381,16 @@
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -1375,27 +1407,105 @@
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <v>0</v>
       </c>
     </row>
